--- a/df_list_20250508.xlsx
+++ b/df_list_20250508.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42117BCC-99EF-4906-9CBC-D71B5E37C3D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4990223A-C757-4FDE-A88F-AEFC8C88D212}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="260">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -719,6 +719,87 @@
   </si>
   <si>
     <t>거창아트갤러리 건립사업 설계용역 제안공모 공고</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>경기도_광명시</t>
+  </si>
+  <si>
+    <t>https://www.gm.go.kr/pt/user/nftcBbs/BD_selectNftcBbsList.do?q_nftcBbsCode=1001&amp;q_rowPerPage=90</t>
+  </si>
+  <si>
+    <t>영회원 수변공원 조성공사 내 전망대 신기술・특허공법 선정위원회 결과 공개</t>
+  </si>
+  <si>
+    <t>2025년 하반기 광명시 여성비전센터 단기특강 제안서 공모</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>김포시육아종합지원센터 통진 분소 공공 실내놀이터 설계 및 제작・설치 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>충청도_태안군</t>
+  </si>
+  <si>
+    <t>http://eminwon.taean.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>용역 입찰 공고(이원면 행정복지센터 건립사업 실시설계 용역)(제안공모)</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>2025년 출연기관 경영평가 용역기관 선정 제안서 평가 결과 알림</t>
+  </si>
+  <si>
+    <t>A171</t>
+  </si>
+  <si>
+    <t>경상도_성주군</t>
+  </si>
+  <si>
+    <t>https://www.sj.go.kr/page.do?mnu_uid=1044&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>2025년 수륜농협 참외AI 비파괴당도선별기 제작설치 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자)모집 공고(화양읍 도시재생 뉴딜사업 지역역량강화용역)</t>
+  </si>
+  <si>
+    <t>『온막천 소하천 정비사업 실시설계 용역』 신기술·특허공법 선정 기술제안서 제출</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자)모집 공고(『온막천 소하천 정비사업 실시설계 용역』 특허공법 선정)</t>
   </si>
 </sst>
 </file>
@@ -726,7 +807,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -791,7 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1094,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2605,6 +2686,186 @@
         <v>45785.92732638889</v>
       </c>
     </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" t="s">
+        <v>236</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45784</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45786.369710648149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45784</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45786.369710648149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" t="s">
+        <v>240</v>
+      </c>
+      <c r="D78" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45784</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45786.369710648149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45784</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45786.369710648149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A80" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80" t="s">
+        <v>249</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45785</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45786.369710648149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A81" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" t="s">
+        <v>252</v>
+      </c>
+      <c r="D81" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45785</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45786.369710648149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A82" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45784</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45786.369710648149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45784</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45786.369710648149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A84" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45784</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45786.369710648149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
